--- a/artfynd/A 18150-2022.xlsx
+++ b/artfynd/A 18150-2022.xlsx
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112129069</v>
+        <v>112129073</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -848,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655168.2728635801</v>
+        <v>655179.6290043201</v>
       </c>
       <c r="R3" t="n">
-        <v>6675142.124752366</v>
+        <v>6675133.143413725</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112129073</v>
+        <v>112128602</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,39 +932,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655179.6290043201</v>
+        <v>655213.6685753738</v>
       </c>
       <c r="R4" t="n">
-        <v>6675133.143413725</v>
+        <v>6675118.649492824</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1044,10 +1044,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112128588</v>
+        <v>112129072</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1056,40 +1056,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1097,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655234.1164904499</v>
+        <v>655162.2127743826</v>
       </c>
       <c r="R5" t="n">
-        <v>6675165.835232249</v>
+        <v>6675143.859974574</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1142,7 +1141,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,7 +1168,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129063</v>
+        <v>112129069</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1204,7 +1203,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1221,10 +1220,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655224.5269193832</v>
+        <v>655168.2728635801</v>
       </c>
       <c r="R6" t="n">
-        <v>6675109.647103507</v>
+        <v>6675142.124752366</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1256,7 +1255,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1266,12 +1265,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:07</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Tätt med småplantor.</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1298,10 +1292,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112128602</v>
+        <v>112129067</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1310,39 +1304,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1350,10 +1344,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655213.6685753738</v>
+        <v>655241.3447700585</v>
       </c>
       <c r="R7" t="n">
-        <v>6675118.649492824</v>
+        <v>6675124.803989546</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1385,7 +1379,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1395,7 +1389,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Tuff tillvaro nära hyggeskanten.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1422,7 +1421,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129072</v>
+        <v>112129063</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1457,7 +1456,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1474,10 +1473,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655162.2127743826</v>
+        <v>655224.5269193832</v>
       </c>
       <c r="R8" t="n">
-        <v>6675143.859974574</v>
+        <v>6675109.647103507</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1509,7 +1508,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1519,7 +1518,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:07</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Tätt med småplantor.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1675,10 +1679,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129067</v>
+        <v>112128588</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1687,39 +1691,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1727,10 +1732,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655241.3447700585</v>
+        <v>655234.1164904499</v>
       </c>
       <c r="R10" t="n">
-        <v>6675124.803989546</v>
+        <v>6675165.835232249</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1762,7 +1767,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1772,12 +1777,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Tuff tillvaro nära hyggeskanten.</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 18150-2022.xlsx
+++ b/artfynd/A 18150-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112129079</v>
+        <v>112129063</v>
       </c>
       <c r="B2" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,29 +692,37 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -724,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655188.2001154863</v>
+        <v>655225</v>
       </c>
       <c r="R2" t="n">
-        <v>6675131.016652388</v>
+        <v>6675110</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -759,7 +767,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -769,7 +777,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:07</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Tätt med småplantor.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,7 +809,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112129073</v>
+        <v>112129069</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -831,7 +844,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -848,10 +861,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655179.6290043201</v>
+        <v>655168</v>
       </c>
       <c r="R3" t="n">
-        <v>6675133.143413725</v>
+        <v>6675142</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -883,7 +896,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -893,7 +906,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +933,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112128602</v>
+        <v>112128588</v>
       </c>
       <c r="B4" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,25 +945,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -958,11 +971,12 @@
           <t>1</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>permanent revir</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -972,10 +986,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655213.6685753738</v>
+        <v>655234</v>
       </c>
       <c r="R4" t="n">
-        <v>6675118.649492824</v>
+        <v>6675166</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1007,7 +1021,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1017,7 +1031,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1044,7 +1058,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129072</v>
+        <v>112129073</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1079,7 +1093,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1096,10 +1110,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655162.2127743826</v>
+        <v>655180</v>
       </c>
       <c r="R5" t="n">
-        <v>6675143.859974574</v>
+        <v>6675133</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1131,7 +1145,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1141,7 +1155,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,10 +1182,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129069</v>
+        <v>112129079</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,37 +1194,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1220,10 +1226,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655168.2728635801</v>
+        <v>655188</v>
       </c>
       <c r="R6" t="n">
-        <v>6675142.124752366</v>
+        <v>6675131</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1255,7 +1261,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1265,7 +1271,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1292,7 +1298,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129067</v>
+        <v>112129065</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1327,7 +1333,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1344,10 +1350,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655241.3447700585</v>
+        <v>655221</v>
       </c>
       <c r="R7" t="n">
-        <v>6675124.803989546</v>
+        <v>6675131</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1379,7 +1385,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1389,12 +1395,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Tuff tillvaro nära hyggeskanten.</t>
+          <t>Djupt nere bland ris och mossa.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1421,7 +1427,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129063</v>
+        <v>112129067</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1456,7 +1462,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1473,10 +1479,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655224.5269193832</v>
+        <v>655241</v>
       </c>
       <c r="R8" t="n">
-        <v>6675109.647103507</v>
+        <v>6675125</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1508,7 +1514,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1518,12 +1524,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Tätt med småplantor.</t>
+          <t>Tuff tillvaro nära hyggeskanten.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1550,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129065</v>
+        <v>112128602</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1562,39 +1568,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1602,10 +1608,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655220.6111362677</v>
+        <v>655214</v>
       </c>
       <c r="R9" t="n">
-        <v>6675131.395201526</v>
+        <v>6675119</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1637,7 +1643,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1647,12 +1653,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:13</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Djupt nere bland ris och mossa.</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1679,10 +1680,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112128588</v>
+        <v>112129072</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1691,40 +1692,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655234.1164904499</v>
+        <v>655162</v>
       </c>
       <c r="R10" t="n">
-        <v>6675165.835232249</v>
+        <v>6675144</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 18150-2022.xlsx
+++ b/artfynd/A 18150-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112129063</v>
+        <v>112129065</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655225</v>
+        <v>655221</v>
       </c>
       <c r="R2" t="n">
-        <v>6675110</v>
+        <v>6675131</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -767,7 +767,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -777,12 +777,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Tätt med småplantor.</t>
+          <t>Djupt nere bland ris och mossa.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112129069</v>
+        <v>112129079</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>98961</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,37 +821,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -861,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655168</v>
+        <v>655188</v>
       </c>
       <c r="R3" t="n">
-        <v>6675142</v>
+        <v>6675131</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -896,7 +888,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -906,7 +898,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1061,7 +1053,7 @@
         <v>112129073</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1182,10 +1174,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129079</v>
+        <v>112129067</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>96720</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1194,29 +1186,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655188</v>
+        <v>655241</v>
       </c>
       <c r="R6" t="n">
-        <v>6675131</v>
+        <v>6675125</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1271,7 +1271,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Tuff tillvaro nära hyggeskanten.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1298,10 +1303,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129065</v>
+        <v>112129069</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1333,7 +1338,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1350,10 +1355,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655221</v>
+        <v>655168</v>
       </c>
       <c r="R7" t="n">
-        <v>6675131</v>
+        <v>6675142</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1385,7 +1390,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1395,12 +1400,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:13</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Djupt nere bland ris och mossa.</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1427,10 +1427,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129067</v>
+        <v>112129072</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655241</v>
+        <v>655162</v>
       </c>
       <c r="R8" t="n">
-        <v>6675125</v>
+        <v>6675144</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1524,12 +1524,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Tuff tillvaro nära hyggeskanten.</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1556,10 +1551,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112128602</v>
+        <v>112129063</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>96720</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,39 +1563,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1608,10 +1603,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655214</v>
+        <v>655225</v>
       </c>
       <c r="R9" t="n">
-        <v>6675119</v>
+        <v>6675110</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1643,7 +1638,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1653,7 +1648,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:07</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Tätt med småplantor.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1680,10 +1680,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112129072</v>
+        <v>112128602</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>56575</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1692,39 +1692,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>permanent revir</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655162</v>
+        <v>655214</v>
       </c>
       <c r="R10" t="n">
-        <v>6675144</v>
+        <v>6675119</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 18150-2022.xlsx
+++ b/artfynd/A 18150-2022.xlsx
@@ -925,10 +925,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112128588</v>
+        <v>112129073</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>96720</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,40 +937,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -978,10 +977,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655234</v>
+        <v>655180</v>
       </c>
       <c r="R4" t="n">
-        <v>6675166</v>
+        <v>6675133</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1013,7 +1012,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1023,7 +1022,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1050,10 +1049,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129073</v>
+        <v>112128588</v>
       </c>
       <c r="B5" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,39 +1061,40 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655180</v>
+        <v>655234</v>
       </c>
       <c r="R5" t="n">
-        <v>6675133</v>
+        <v>6675166</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 18150-2022.xlsx
+++ b/artfynd/A 18150-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112129065</v>
       </c>
       <c r="B2" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -809,10 +809,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112129079</v>
+        <v>112128588</v>
       </c>
       <c r="B3" t="n">
-        <v>98961</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -825,27 +825,36 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +862,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655188</v>
+        <v>655234</v>
       </c>
       <c r="R3" t="n">
-        <v>6675131</v>
+        <v>6675166</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -888,7 +897,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -898,7 +907,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -925,10 +934,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112129073</v>
+        <v>112129067</v>
       </c>
       <c r="B4" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -960,7 +969,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -977,10 +986,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655180</v>
+        <v>655241</v>
       </c>
       <c r="R4" t="n">
-        <v>6675133</v>
+        <v>6675125</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1012,7 +1021,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1022,7 +1031,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Tuff tillvaro nära hyggeskanten.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1049,10 +1063,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112128588</v>
+        <v>112129072</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1061,40 +1075,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1102,10 +1115,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655234</v>
+        <v>655162</v>
       </c>
       <c r="R5" t="n">
-        <v>6675166</v>
+        <v>6675144</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1137,7 +1150,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1147,7 +1160,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1174,10 +1187,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129067</v>
+        <v>112129063</v>
       </c>
       <c r="B6" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1209,7 +1222,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1226,10 +1239,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655241</v>
+        <v>655225</v>
       </c>
       <c r="R6" t="n">
-        <v>6675125</v>
+        <v>6675110</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1261,7 +1274,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1271,12 +1284,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Tuff tillvaro nära hyggeskanten.</t>
+          <t>Tätt med småplantor.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1303,10 +1316,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129069</v>
+        <v>112129073</v>
       </c>
       <c r="B7" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1338,7 +1351,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1355,10 +1368,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655168</v>
+        <v>655180</v>
       </c>
       <c r="R7" t="n">
-        <v>6675142</v>
+        <v>6675133</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1390,7 +1403,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1400,7 +1413,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1427,10 +1440,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129072</v>
+        <v>112129079</v>
       </c>
       <c r="B8" t="n">
-        <v>96720</v>
+        <v>98980</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,37 +1452,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1479,10 +1484,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655162</v>
+        <v>655188</v>
       </c>
       <c r="R8" t="n">
-        <v>6675144</v>
+        <v>6675131</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1514,7 +1519,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1524,7 +1529,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1551,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129063</v>
+        <v>112129069</v>
       </c>
       <c r="B9" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1586,7 +1591,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1603,10 +1608,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655225</v>
+        <v>655168</v>
       </c>
       <c r="R9" t="n">
-        <v>6675110</v>
+        <v>6675142</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1638,7 +1643,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1648,12 +1653,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:07</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Tätt med småplantor.</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD9" t="b">

--- a/artfynd/A 18150-2022.xlsx
+++ b/artfynd/A 18150-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112129065</v>
+        <v>112128588</v>
       </c>
       <c r="B2" t="n">
-        <v>96735</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -732,10 +733,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655221</v>
+        <v>655234</v>
       </c>
       <c r="R2" t="n">
-        <v>6675131</v>
+        <v>6675166</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -767,7 +768,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>10:12</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -777,12 +778,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>10:13</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Djupt nere bland ris och mossa.</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -809,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112128588</v>
+        <v>112128602</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>56575</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,25 +817,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -847,12 +843,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>permanent revir</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -862,10 +857,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655234</v>
+        <v>655214</v>
       </c>
       <c r="R3" t="n">
-        <v>6675166</v>
+        <v>6675119</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -897,7 +892,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -907,7 +902,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -934,10 +929,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112129067</v>
+        <v>112129079</v>
       </c>
       <c r="B4" t="n">
-        <v>96735</v>
+        <v>98980</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,37 +941,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -986,10 +973,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655241</v>
+        <v>655188</v>
       </c>
       <c r="R4" t="n">
-        <v>6675125</v>
+        <v>6675131</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1021,7 +1008,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1031,12 +1018,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Tuff tillvaro nära hyggeskanten.</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1316,7 +1298,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129073</v>
+        <v>112129069</v>
       </c>
       <c r="B7" t="n">
         <v>96735</v>
@@ -1351,7 +1333,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1368,10 +1350,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655180</v>
+        <v>655168</v>
       </c>
       <c r="R7" t="n">
-        <v>6675133</v>
+        <v>6675142</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1403,7 +1385,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1413,7 +1395,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1440,10 +1422,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129079</v>
+        <v>112129067</v>
       </c>
       <c r="B8" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1452,29 +1434,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -1484,10 +1474,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655188</v>
+        <v>655241</v>
       </c>
       <c r="R8" t="n">
-        <v>6675131</v>
+        <v>6675125</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1519,7 +1509,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1529,7 +1519,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Tuff tillvaro nära hyggeskanten.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1556,7 +1551,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129069</v>
+        <v>112129073</v>
       </c>
       <c r="B9" t="n">
         <v>96735</v>
@@ -1591,7 +1586,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1608,10 +1603,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655168</v>
+        <v>655180</v>
       </c>
       <c r="R9" t="n">
-        <v>6675142</v>
+        <v>6675133</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1643,7 +1638,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1653,7 +1648,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1680,10 +1675,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112128602</v>
+        <v>112129065</v>
       </c>
       <c r="B10" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1692,39 +1687,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1732,10 +1727,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>655214</v>
+        <v>655221</v>
       </c>
       <c r="R10" t="n">
-        <v>6675119</v>
+        <v>6675131</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1767,7 +1762,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1777,7 +1772,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Djupt nere bland ris och mossa.</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 18150-2022.xlsx
+++ b/artfynd/A 18150-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112128588</v>
+        <v>112128602</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>56575</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -718,12 +718,11 @@
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>permanent revir</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -733,10 +732,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>655234</v>
+        <v>655214</v>
       </c>
       <c r="R2" t="n">
-        <v>6675166</v>
+        <v>6675119</v>
       </c>
       <c r="S2" t="n">
         <v>4</v>
@@ -768,7 +767,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -778,7 +777,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:09</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -805,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112128602</v>
+        <v>112129079</v>
       </c>
       <c r="B3" t="n">
-        <v>56575</v>
+        <v>98980</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,39 +816,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>permanent revir</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -857,10 +848,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>655214</v>
+        <v>655188</v>
       </c>
       <c r="R3" t="n">
-        <v>6675119</v>
+        <v>6675131</v>
       </c>
       <c r="S3" t="n">
         <v>4</v>
@@ -892,7 +883,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -902,7 +893,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:09</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -929,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112129079</v>
+        <v>112129072</v>
       </c>
       <c r="B4" t="n">
-        <v>98980</v>
+        <v>96735</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -941,29 +932,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
@@ -973,10 +972,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>655188</v>
+        <v>655162</v>
       </c>
       <c r="R4" t="n">
-        <v>6675131</v>
+        <v>6675144</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -1008,7 +1007,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:39</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1018,7 +1017,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1045,7 +1044,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112129072</v>
+        <v>112129063</v>
       </c>
       <c r="B5" t="n">
         <v>96735</v>
@@ -1080,7 +1079,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1097,10 +1096,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>655162</v>
+        <v>655225</v>
       </c>
       <c r="R5" t="n">
-        <v>6675144</v>
+        <v>6675110</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -1132,7 +1131,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:39</t>
+          <t>10:06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1142,7 +1141,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:41</t>
+          <t>10:07</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Tätt med småplantor.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,7 +1173,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112129063</v>
+        <v>112129069</v>
       </c>
       <c r="B6" t="n">
         <v>96735</v>
@@ -1204,7 +1208,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1221,10 +1225,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>655225</v>
+        <v>655168</v>
       </c>
       <c r="R6" t="n">
-        <v>6675110</v>
+        <v>6675142</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -1256,7 +1260,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:06</t>
+          <t>10:37</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1266,12 +1270,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:07</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Tätt med småplantor.</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1298,7 +1297,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112129069</v>
+        <v>112129067</v>
       </c>
       <c r="B7" t="n">
         <v>96735</v>
@@ -1333,7 +1332,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1350,10 +1349,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>655168</v>
+        <v>655241</v>
       </c>
       <c r="R7" t="n">
-        <v>6675142</v>
+        <v>6675125</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -1385,7 +1384,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:37</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1395,7 +1394,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:38</t>
+          <t>10:17</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Tuff tillvaro nära hyggeskanten.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1422,7 +1426,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112129067</v>
+        <v>112129073</v>
       </c>
       <c r="B8" t="n">
         <v>96735</v>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1474,10 +1478,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>655241</v>
+        <v>655180</v>
       </c>
       <c r="R8" t="n">
-        <v>6675125</v>
+        <v>6675133</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -1509,7 +1513,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1519,12 +1523,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:17</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Tuff tillvaro nära hyggeskanten.</t>
+          <t>10:44</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1551,7 +1550,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112129073</v>
+        <v>112129065</v>
       </c>
       <c r="B9" t="n">
         <v>96735</v>
@@ -1586,7 +1585,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1603,10 +1602,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>655180</v>
+        <v>655221</v>
       </c>
       <c r="R9" t="n">
-        <v>6675133</v>
+        <v>6675131</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1638,7 +1637,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>10:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1648,7 +1647,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:44</t>
+          <t>10:13</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Djupt nere bland ris och mossa.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1672,135 +1676,6 @@
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>112129065</v>
-      </c>
-      <c r="B10" t="n">
-        <v>96735</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>220787</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Goodyera repens</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Bengtsängspussen, Upl</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>655221</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6675131</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Uppsala</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Östhammar</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Uppland</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Dannemora</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>10:12</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>10:13</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Djupt nere bland ris och mossa.</t>
-        </is>
-      </c>
-      <c r="AD10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Annika Rastén</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>Annika Rastén</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
